--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H2">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I2">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J2">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>175.5911197344739</v>
+        <v>292.6485616143011</v>
       </c>
       <c r="R2">
-        <v>175.5911197344739</v>
+        <v>2633.83705452871</v>
       </c>
       <c r="S2">
-        <v>0.003772521856200366</v>
+        <v>0.005632421878807096</v>
       </c>
       <c r="T2">
-        <v>0.003772521856200366</v>
+        <v>0.005632421878807097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H3">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I3">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J3">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>13138.17774124955</v>
+        <v>14661.64304626191</v>
       </c>
       <c r="R3">
-        <v>13138.17774124955</v>
+        <v>131954.7874163572</v>
       </c>
       <c r="S3">
-        <v>0.2822697568900926</v>
+        <v>0.2821833759151132</v>
       </c>
       <c r="T3">
-        <v>0.2822697568900926</v>
+        <v>0.2821833759151132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H4">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I4">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J4">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>22.0946440258209</v>
+        <v>25.58481186719467</v>
       </c>
       <c r="R4">
-        <v>22.0946440258209</v>
+        <v>230.263306804752</v>
       </c>
       <c r="S4">
-        <v>0.0004746967136972562</v>
+        <v>0.0004924147015486599</v>
       </c>
       <c r="T4">
-        <v>0.0004746967136972562</v>
+        <v>0.0004924147015486599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.514800527945</v>
+        <v>157.7984646666667</v>
       </c>
       <c r="H5">
-        <v>141.514800527945</v>
+        <v>473.395394</v>
       </c>
       <c r="I5">
-        <v>0.3353755851951024</v>
+        <v>0.341075365555871</v>
       </c>
       <c r="J5">
-        <v>0.3353755851951024</v>
+        <v>0.3410753655558709</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>2274.112203739175</v>
+        <v>2741.668109363794</v>
       </c>
       <c r="R5">
-        <v>2274.112203739175</v>
+        <v>24675.01298427415</v>
       </c>
       <c r="S5">
-        <v>0.0488586097351122</v>
+        <v>0.05276715306040204</v>
       </c>
       <c r="T5">
-        <v>0.0488586097351122</v>
+        <v>0.05276715306040203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H6">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I6">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J6">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>157.7838315568947</v>
+        <v>236.4781826959389</v>
       </c>
       <c r="R6">
-        <v>157.7838315568947</v>
+        <v>2128.30364426345</v>
       </c>
       <c r="S6">
-        <v>0.003389937680239977</v>
+        <v>0.004551346101719772</v>
       </c>
       <c r="T6">
-        <v>0.003389937680239977</v>
+        <v>0.004551346101719773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H7">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I7">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J7">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>11805.79078728246</v>
+        <v>11847.51663835662</v>
       </c>
       <c r="R7">
-        <v>11805.79078728246</v>
+        <v>106627.6497452096</v>
       </c>
       <c r="S7">
-        <v>0.2536438280142018</v>
+        <v>0.2280216637844222</v>
       </c>
       <c r="T7">
-        <v>0.2536438280142018</v>
+        <v>0.2280216637844222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H8">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I8">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J8">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>19.85395159249179</v>
+        <v>20.67411430829334</v>
       </c>
       <c r="R8">
-        <v>19.85395159249179</v>
+        <v>186.06702877464</v>
       </c>
       <c r="S8">
-        <v>0.0004265561175752005</v>
+        <v>0.000397901609741928</v>
       </c>
       <c r="T8">
-        <v>0.0004265561175752005</v>
+        <v>0.000397901609741928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>127.163306909108</v>
+        <v>127.5109433333333</v>
       </c>
       <c r="H9">
-        <v>127.163306909108</v>
+        <v>382.53283</v>
       </c>
       <c r="I9">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="J9">
-        <v>0.3013640150067899</v>
+        <v>0.2756100428585324</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>2043.486808665835</v>
+        <v>2215.437822353806</v>
       </c>
       <c r="R9">
-        <v>2043.486808665835</v>
+        <v>19938.94040118425</v>
       </c>
       <c r="S9">
-        <v>0.04390369319477305</v>
+        <v>0.04263913136264852</v>
       </c>
       <c r="T9">
-        <v>0.04390369319477305</v>
+        <v>0.04263913136264852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H10">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I10">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J10">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>96.12601540476624</v>
+        <v>159.7295359105367</v>
       </c>
       <c r="R10">
-        <v>96.12601540476624</v>
+        <v>1437.56582319483</v>
       </c>
       <c r="S10">
-        <v>0.002065238234213145</v>
+        <v>0.003074213410759664</v>
       </c>
       <c r="T10">
-        <v>0.002065238234213145</v>
+        <v>0.003074213410759665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H11">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I11">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J11">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>7192.394910720315</v>
+        <v>8002.422518487848</v>
       </c>
       <c r="R11">
-        <v>7192.394910720315</v>
+        <v>72021.80266639062</v>
       </c>
       <c r="S11">
-        <v>0.1545264193322958</v>
+        <v>0.1540175677883356</v>
       </c>
       <c r="T11">
-        <v>0.1545264193322958</v>
+        <v>0.1540175677883356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H12">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I12">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J12">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>12.09554387033108</v>
+        <v>13.964360881744</v>
       </c>
       <c r="R12">
-        <v>12.09554387033108</v>
+        <v>125.679247935696</v>
       </c>
       <c r="S12">
-        <v>0.0002598690849654379</v>
+        <v>0.0002687632268548599</v>
       </c>
       <c r="T12">
-        <v>0.0002598690849654379</v>
+        <v>0.00026876322685486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.4711951044124</v>
+        <v>86.127454</v>
       </c>
       <c r="H13">
-        <v>77.4711951044124</v>
+        <v>258.382362</v>
       </c>
       <c r="I13">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="J13">
-        <v>0.1835987988321801</v>
+        <v>0.1861612083457225</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>1244.945331286482</v>
+        <v>1496.420731794217</v>
       </c>
       <c r="R13">
-        <v>1244.945331286482</v>
+        <v>13467.78658614795</v>
       </c>
       <c r="S13">
-        <v>0.0267472721807057</v>
+        <v>0.02880066391977233</v>
       </c>
       <c r="T13">
-        <v>0.0267472721807057</v>
+        <v>0.02880066391977233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H14">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I14">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J14">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>94.06463403870985</v>
+        <v>169.1610120493767</v>
       </c>
       <c r="R14">
-        <v>94.06463403870985</v>
+        <v>1522.44910844439</v>
       </c>
       <c r="S14">
-        <v>0.002020950081889886</v>
+        <v>0.003255735070257387</v>
       </c>
       <c r="T14">
-        <v>0.002020950081889886</v>
+        <v>0.003255735070257387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H15">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I15">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J15">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>7038.157072151356</v>
+        <v>8474.937865169295</v>
       </c>
       <c r="R15">
-        <v>7038.157072151356</v>
+        <v>76274.44078652366</v>
       </c>
       <c r="S15">
-        <v>0.1512126662339934</v>
+        <v>0.1631117719834286</v>
       </c>
       <c r="T15">
-        <v>0.1512126662339934</v>
+        <v>0.1631117719834286</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H16">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I16">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J16">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>11.83616009538079</v>
+        <v>14.788908049552</v>
       </c>
       <c r="R16">
-        <v>11.83616009538079</v>
+        <v>133.100172445968</v>
       </c>
       <c r="S16">
-        <v>0.0002542963033713376</v>
+        <v>0.0002846327649877385</v>
       </c>
       <c r="T16">
-        <v>0.0002542963033713376</v>
+        <v>0.0002846327649877385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.8098583963225</v>
+        <v>91.212982</v>
       </c>
       <c r="H17">
-        <v>75.8098583963225</v>
+        <v>273.638946</v>
       </c>
       <c r="I17">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398742</v>
       </c>
       <c r="J17">
-        <v>0.1796616009659276</v>
+        <v>0.1971533832398741</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>1218.248010099635</v>
+        <v>1584.779195650817</v>
       </c>
       <c r="R17">
-        <v>1218.248010099635</v>
+        <v>14263.01276085735</v>
       </c>
       <c r="S17">
-        <v>0.02617368834667308</v>
+        <v>0.03050124342120043</v>
       </c>
       <c r="T17">
-        <v>0.02617368834667308</v>
+        <v>0.03050124342120043</v>
       </c>
     </row>
   </sheetData>
